--- a/Prototypes/Prototype 2( Comamnd Line Style)/Orders.xlsx
+++ b/Prototypes/Prototype 2( Comamnd Line Style)/Orders.xlsx
@@ -356,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="U101" sqref="U101"/>
@@ -416,230 +416,75 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>190.85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19085</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>191.62</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19162</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BYND</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>152.24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>15224</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>149.21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14921</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>190.82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>333</v>
-      </c>
-      <c r="E4" t="n">
-        <v>63543</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>191.66</v>
-      </c>
-      <c r="H4" t="n">
-        <v>63822.78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1867.67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>18677</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1866.26</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18662.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>191.77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3835</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>191.66</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3833.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30170</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="H7" t="n">
-        <v>30120</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>180.97</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3619</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6/14/2019</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>181.08</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3621.6</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
